--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STATE</t>
   </si>
@@ -41,25 +41,22 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>20x the Cash 2015</t>
+  </si>
+  <si>
+    <t>6 98720 004 91 2</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>$100,000 Double Match 2016</t>
   </si>
   <si>
     <t>6 9872016 116 5</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>20x the Cash 2015</t>
-  </si>
-  <si>
-    <t>6 98720 004 91 2</t>
-  </si>
-  <si>
-    <t>$100,000 Holiday Bonus 2015</t>
-  </si>
-  <si>
-    <t>6 98720 005 15 5</t>
+    <t>2019-03-21</t>
   </si>
   <si>
     <t>$1000 a Week for Life 2014</t>
@@ -101,12 +98,6 @@
     <t>6 9872016 119 6</t>
   </si>
   <si>
-    <t>Cash Blast 2013</t>
-  </si>
-  <si>
-    <t>6 98720 00381 6</t>
-  </si>
-  <si>
     <t>Silver, Gold, and Platinum 8's 2014</t>
   </si>
   <si>
@@ -144,27 +135,6 @@
   </si>
   <si>
     <t>6 98720 00359 5</t>
-  </si>
-  <si>
-    <t>$2,500,000 Holiday Bonus 2015</t>
-  </si>
-  <si>
-    <t>6 98720 004 21 9</t>
-  </si>
-  <si>
-    <t>$20.00 Games</t>
-  </si>
-  <si>
-    <t>Billion Dollar Blockbuster 2007</t>
-  </si>
-  <si>
-    <t>6 98720 00136 2</t>
-  </si>
-  <si>
-    <t>Billion Dollar Bonanza 2008</t>
-  </si>
-  <si>
-    <t>6 98720 00294 9</t>
   </si>
 </sst>
 </file>
@@ -503,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -565,10 +535,10 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -579,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -596,16 +566,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -616,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -636,13 +606,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -656,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -676,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -696,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -716,13 +686,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -736,16 +706,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -756,16 +726,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -776,16 +746,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -796,118 +766,18 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
